--- a/statistics/HistoricalDistanceData/historical_distance/Q2071916-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q2071916-en.xlsx
@@ -31,66 +31,66 @@
     <t>uri</t>
   </si>
   <si>
+    <t>UAH shooting victim released from hospital</t>
+  </si>
+  <si>
+    <t>Alabama Shooting Suspect's Husband: 'I'm No Psychologist'</t>
+  </si>
+  <si>
+    <t>Ex-professor gets life in prison for UAH shooting - WSFA.com Montgomery Alabama news.</t>
+  </si>
+  <si>
+    <t>Professor Accused in Killings Is Said to Attempt Suicide</t>
+  </si>
+  <si>
+    <t>UAH campus memorial service</t>
+  </si>
+  <si>
+    <t>Prosecutors to seek death penalty for accused UAH shooter Amy Bishop</t>
+  </si>
+  <si>
+    <t>Saturday press conference on campus shooting - WAFF-TV: News, Weather and Sports for Huntsville, AL</t>
+  </si>
+  <si>
     <t>Ala. prof's story begins with brother's 1986 death</t>
   </si>
   <si>
-    <t>Ex-professor gets life in prison for UAH shooting - WSFA.com Montgomery Alabama news.</t>
-  </si>
-  <si>
-    <t>Saturday press conference on campus shooting - WAFF-TV: News, Weather and Sports for Huntsville, AL</t>
-  </si>
-  <si>
-    <t>Professor Accused in Killings Is Said to Attempt Suicide</t>
-  </si>
-  <si>
-    <t>Prosecutors to seek death penalty for accused UAH shooter Amy Bishop</t>
-  </si>
-  <si>
-    <t>UAH shooting victim released from hospital</t>
-  </si>
-  <si>
-    <t>Alabama Shooting Suspect's Husband: 'I'm No Psychologist'</t>
-  </si>
-  <si>
-    <t>UAH campus memorial service</t>
-  </si>
-  <si>
     <t>A Promising Start to an Academic Life-or to a Life of Violence?</t>
   </si>
   <si>
     <t>Alabama shooting survivor: 'There was no way to ever anticipate this'</t>
   </si>
   <si>
+    <t>The New York Times</t>
+  </si>
+  <si>
     <t>Amy Bishop case</t>
   </si>
   <si>
-    <t>The New York Times</t>
+    <t>2010-03-29T10:19:00UTC</t>
+  </si>
+  <si>
+    <t>2010-02-12T23:34:01UTC</t>
+  </si>
+  <si>
+    <t>2012-09-24T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2010-06-19T18:14:50UTC</t>
+  </si>
+  <si>
+    <t>2010-02-20T12:27:00UTC</t>
+  </si>
+  <si>
+    <t>2011-05-25T15:03:00UTC</t>
+  </si>
+  <si>
+    <t>2010-02-13T00:00:00UTC</t>
   </si>
   <si>
     <t>2010-02-16T00:00:00UTC</t>
   </si>
   <si>
-    <t>2012-09-24T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2010-02-13T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2010-06-19T18:14:50UTC</t>
-  </si>
-  <si>
-    <t>2011-05-25T15:03:00UTC</t>
-  </si>
-  <si>
-    <t>2010-03-29T10:19:00UTC</t>
-  </si>
-  <si>
-    <t>2010-02-12T23:34:01UTC</t>
-  </si>
-  <si>
-    <t>2010-02-20T12:27:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -100,52 +100,52 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
+    <t>day_0</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_0</t>
+    <t>http://blog.al.com/breaking/2010/03/uah_shooting_victim_released_f.html</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/GMA/alabama-university-shooting-suspect-amy-bishop-violent-past/story?id=9839348</t>
+  </si>
+  <si>
+    <t>http://www.wsfa.com/story/19619130/jury-finds-amy-bishop-anderson-guilty-of-capital-murder</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2010/06/20/us/20bishop.html?ref=us</t>
+  </si>
+  <si>
+    <t>http://blog.al.com/breaking/2010/02/uah_campus_memorial_service.html</t>
+  </si>
+  <si>
+    <t>http://blog.al.com/breaking/2011/05/prosecutors_to_seek_death_pena.html</t>
+  </si>
+  <si>
+    <t>http://www.waff.com/Global/story.asp?S=11983009</t>
   </si>
   <si>
     <t>http://www.boston.com/news/nation/articles/2010/02/16/survivor_ala_prof_in_slayings_shot_methodically/</t>
   </si>
   <si>
-    <t>http://www.wsfa.com/story/19619130/jury-finds-amy-bishop-anderson-guilty-of-capital-murder</t>
-  </si>
-  <si>
-    <t>http://www.waff.com/Global/story.asp?S=11983009</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2010/06/20/us/20bishop.html?ref=us</t>
-  </si>
-  <si>
-    <t>http://blog.al.com/breaking/2011/05/prosecutors_to_seek_death_pena.html</t>
-  </si>
-  <si>
-    <t>http://blog.al.com/breaking/2010/03/uah_shooting_victim_released_f.html</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/GMA/alabama-university-shooting-suspect-amy-bishop-violent-past/story?id=9839348</t>
-  </si>
-  <si>
-    <t>http://blog.al.com/breaking/2010/02/uah_campus_memorial_service.html</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20140715002421/http://www.crimelibrary.com/notorious_murders/mass/amy_bishop/2.html</t>
   </si>
   <si>
     <t>http://www.cnn.com/2010/CRIME/02/17/alabama.shooting.witness/index.html</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2009/07/05/movies/05pare.html</t>
+  </si>
+  <si>
     <t>http://www.boston.com/news/specials/02_15_Amy_Bishop/</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2009/07/05/movies/05pare.html</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -564,7 +564,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -581,10 +581,10 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>955</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -601,7 +601,7 @@
         <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -615,10 +615,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -632,10 +632,10 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -666,10 +666,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
@@ -714,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
